--- a/ege25/ответы25.xlsx
+++ b/ege25/ответы25.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjhgb\PycharmProjects\isakovich2023\ege25\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4535B5-4D36-4889-8DFB-44C28D4DB114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17093,7 +17099,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -17194,7 +17200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -17310,6 +17316,7 @@
     <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -17319,6 +17326,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -17367,7 +17377,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17400,9 +17410,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17435,6 +17462,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -17610,11 +17654,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC603"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD603"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD93" sqref="AD93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -19074,7 +19118,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -19163,7 +19207,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -19252,7 +19296,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -19341,7 +19385,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="108" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" ht="108" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -19430,7 +19474,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -19519,7 +19563,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="144" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" ht="144" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -19608,7 +19652,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -19696,8 +19740,9 @@
       <c r="AC23" s="14" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+      <c r="AD23" s="39"/>
+    </row>
+    <row r="24" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -19785,8 +19830,9 @@
       <c r="AC24" s="14" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="25" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+      <c r="AD24" s="39"/>
+    </row>
+    <row r="25" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -19875,7 +19921,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -19964,7 +20010,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -20053,7 +20099,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -20142,7 +20188,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -20231,7 +20277,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -20320,7 +20366,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -20409,7 +20455,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -23346,7 +23392,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="65" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -23435,7 +23481,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="66" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -23524,7 +23570,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="67" spans="1:29" ht="144" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" ht="144" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -23613,7 +23659,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="68" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -23701,8 +23747,9 @@
       <c r="AC68" s="23" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="69" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+      <c r="AD68" s="39"/>
+    </row>
+    <row r="69" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -23790,8 +23837,9 @@
       <c r="AC69" s="21" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="70" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+      <c r="AD69" s="39"/>
+    </row>
+    <row r="70" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -23879,8 +23927,9 @@
       <c r="AC70" s="21" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="71" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+      <c r="AD70" s="39"/>
+    </row>
+    <row r="71" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -23968,8 +24017,9 @@
       <c r="AC71" s="14" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="72" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+      <c r="AD71" s="39"/>
+    </row>
+    <row r="72" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -24057,8 +24107,9 @@
       <c r="AC72" s="23">
         <v>2362</v>
       </c>
-    </row>
-    <row r="73" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+      <c r="AD72" s="39"/>
+    </row>
+    <row r="73" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -24146,8 +24197,9 @@
       <c r="AC73" s="23" t="s">
         <v>1237</v>
       </c>
-    </row>
-    <row r="74" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+      <c r="AD73" s="39"/>
+    </row>
+    <row r="74" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>73</v>
       </c>
@@ -24235,8 +24287,9 @@
       <c r="AC74" s="23">
         <v>4953</v>
       </c>
-    </row>
-    <row r="75" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+      <c r="AD74" s="39"/>
+    </row>
+    <row r="75" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>74</v>
       </c>
@@ -24324,8 +24377,9 @@
       <c r="AC75" s="23">
         <v>22567</v>
       </c>
-    </row>
-    <row r="76" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+      <c r="AD75" s="39"/>
+    </row>
+    <row r="76" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>75</v>
       </c>
@@ -24413,8 +24467,9 @@
       <c r="AC76" s="23" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="77" spans="1:29" ht="144" x14ac:dyDescent="0.25">
+      <c r="AD76" s="39"/>
+    </row>
+    <row r="77" spans="1:30" ht="144" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>76</v>
       </c>
@@ -24502,8 +24557,9 @@
       <c r="AC77" s="23" t="s">
         <v>1304</v>
       </c>
-    </row>
-    <row r="78" spans="1:29" ht="108" x14ac:dyDescent="0.25">
+      <c r="AD77" s="39"/>
+    </row>
+    <row r="78" spans="1:30" ht="108" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>77</v>
       </c>
@@ -24592,7 +24648,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="79" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>78</v>
       </c>
@@ -24681,7 +24737,7 @@
         <v>17984</v>
       </c>
     </row>
-    <row r="80" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>79</v>
       </c>
@@ -24770,7 +24826,7 @@
         <v>255203</v>
       </c>
     </row>
-    <row r="81" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>80</v>
       </c>
@@ -24858,8 +24914,9 @@
       <c r="AC81" s="23" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="82" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+      <c r="AD81" s="39"/>
+    </row>
+    <row r="82" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>81</v>
       </c>
@@ -24946,7 +25003,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="83" spans="1:29" ht="252" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" ht="252" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>82</v>
       </c>
@@ -25032,8 +25089,9 @@
       <c r="AC83" s="14" t="s">
         <v>1398</v>
       </c>
-    </row>
-    <row r="84" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+      <c r="AD83" s="39"/>
+    </row>
+    <row r="84" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>83</v>
       </c>
@@ -25119,8 +25177,9 @@
       <c r="AC84" s="14">
         <v>494</v>
       </c>
-    </row>
-    <row r="85" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+      <c r="AD84" s="39"/>
+    </row>
+    <row r="85" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>84</v>
       </c>
@@ -25206,8 +25265,9 @@
       <c r="AC85" s="14" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="86" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+      <c r="AD85" s="39"/>
+    </row>
+    <row r="86" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>85</v>
       </c>
@@ -25294,7 +25354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>86</v>
       </c>
@@ -25380,8 +25440,9 @@
       <c r="AC87" s="21" t="s">
         <v>1469</v>
       </c>
-    </row>
-    <row r="88" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+      <c r="AD87" s="39"/>
+    </row>
+    <row r="88" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>87</v>
       </c>
@@ -25467,8 +25528,9 @@
       <c r="AC88" s="21" t="s">
         <v>1488</v>
       </c>
-    </row>
-    <row r="89" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+      <c r="AD88" s="39"/>
+    </row>
+    <row r="89" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>88</v>
       </c>
@@ -25555,7 +25617,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="90" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>89</v>
       </c>
@@ -25642,7 +25704,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="91" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>90</v>
       </c>
@@ -25726,8 +25788,9 @@
       <c r="AC91" s="21" t="s">
         <v>1542</v>
       </c>
-    </row>
-    <row r="92" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+      <c r="AD91" s="39"/>
+    </row>
+    <row r="92" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>91</v>
       </c>
@@ -25811,8 +25874,9 @@
       <c r="AC92" s="21" t="s">
         <v>1561</v>
       </c>
-    </row>
-    <row r="93" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+      <c r="AD92" s="39"/>
+    </row>
+    <row r="93" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>92</v>
       </c>
@@ -25897,7 +25961,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="94" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>93</v>
       </c>
@@ -25981,8 +26045,9 @@
       <c r="AC94" s="21" t="s">
         <v>1597</v>
       </c>
-    </row>
-    <row r="95" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+      <c r="AD94" s="39"/>
+    </row>
+    <row r="95" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>94</v>
       </c>
@@ -26067,7 +26132,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="96" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>95</v>
       </c>
@@ -26151,8 +26216,9 @@
       <c r="AC96" s="21" t="s">
         <v>1633</v>
       </c>
-    </row>
-    <row r="97" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+      <c r="AD96" s="39"/>
+    </row>
+    <row r="97" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>96</v>
       </c>
@@ -26237,7 +26303,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="98" spans="1:29" ht="108" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:30" ht="108" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>97</v>
       </c>
@@ -26322,7 +26388,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="99" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>98</v>
       </c>
@@ -26406,8 +26472,9 @@
       <c r="AC99" s="14" t="s">
         <v>1686</v>
       </c>
-    </row>
-    <row r="100" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+      <c r="AD99" s="39"/>
+    </row>
+    <row r="100" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>99</v>
       </c>
@@ -26492,7 +26559,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="101" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>100</v>
       </c>
@@ -26577,7 +26644,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="102" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>101</v>
       </c>
@@ -26662,7 +26729,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="103" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>102</v>
       </c>
@@ -26747,7 +26814,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="104" spans="1:29" ht="198" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:30" ht="198" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>103</v>
       </c>
@@ -26832,7 +26899,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="105" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>104</v>
       </c>
@@ -26917,7 +26984,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="106" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>105</v>
       </c>
@@ -26999,7 +27066,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="107" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>106</v>
       </c>
@@ -27081,7 +27148,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="108" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>107</v>
       </c>
@@ -27163,7 +27230,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="109" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>108</v>
       </c>
@@ -27245,7 +27312,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="110" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>109</v>
       </c>
@@ -27327,7 +27394,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="111" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:30" ht="90" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>110</v>
       </c>
@@ -27407,7 +27474,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="112" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:30" ht="90" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>111</v>
       </c>
@@ -48800,7 +48867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -48812,7 +48879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/ege25/ответы25.xlsx
+++ b/ege25/ответы25.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjhgb\PycharmProjects\isakovich2023\ege25\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4535B5-4D36-4889-8DFB-44C28D4DB114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17099,7 +17093,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -17200,7 +17194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -17317,6 +17311,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -17377,7 +17372,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17410,26 +17405,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17462,23 +17440,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -17654,11 +17615,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD93" sqref="AD93"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AJ49" sqref="AJ49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -20544,7 +20505,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -20633,7 +20594,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -20722,7 +20683,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -20811,7 +20772,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -20900,7 +20861,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -20989,7 +20950,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -21078,7 +21039,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -21167,7 +21128,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -21256,7 +21217,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -21345,7 +21306,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -21434,7 +21395,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -21523,7 +21484,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -21612,7 +21573,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -21701,7 +21662,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -21789,8 +21750,9 @@
       <c r="AC46" s="14" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="47" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+      <c r="AD46" s="40"/>
+    </row>
+    <row r="47" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -21878,8 +21840,9 @@
       <c r="AC47" s="14" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="48" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+      <c r="AD47" s="40"/>
+    </row>
+    <row r="48" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -21967,8 +21930,9 @@
       <c r="AC48" s="14" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="49" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+      <c r="AD48" s="40"/>
+    </row>
+    <row r="49" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -22056,8 +22020,9 @@
       <c r="AC49" s="14" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="50" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+      <c r="AD49" s="40"/>
+    </row>
+    <row r="50" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -22145,8 +22110,9 @@
       <c r="AC50" s="14" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="51" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+      <c r="AD50" s="40"/>
+    </row>
+    <row r="51" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -22234,8 +22200,9 @@
       <c r="AC51" s="14" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="52" spans="1:29" ht="144" x14ac:dyDescent="0.25">
+      <c r="AD51" s="40"/>
+    </row>
+    <row r="52" spans="1:30" ht="144" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -22323,8 +22290,9 @@
       <c r="AC52" s="14" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="53" spans="1:29" ht="144" x14ac:dyDescent="0.25">
+      <c r="AD52" s="40"/>
+    </row>
+    <row r="53" spans="1:30" ht="144" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -22412,8 +22380,9 @@
       <c r="AC53" s="14" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="54" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+      <c r="AD53" s="40"/>
+    </row>
+    <row r="54" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -22501,8 +22470,9 @@
       <c r="AC54" s="14" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="55" spans="1:29" ht="144" x14ac:dyDescent="0.25">
+      <c r="AD54" s="40"/>
+    </row>
+    <row r="55" spans="1:30" ht="144" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -22590,8 +22560,9 @@
       <c r="AC55" s="14" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="56" spans="1:29" ht="144" x14ac:dyDescent="0.25">
+      <c r="AD55" s="40"/>
+    </row>
+    <row r="56" spans="1:30" ht="144" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -22679,8 +22650,9 @@
       <c r="AC56" s="14" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="57" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+      <c r="AD56" s="40"/>
+    </row>
+    <row r="57" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -22768,8 +22740,9 @@
       <c r="AC57" s="14" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="58" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+      <c r="AD57" s="40"/>
+    </row>
+    <row r="58" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -22857,8 +22830,9 @@
       <c r="AC58" s="14" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="59" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+      <c r="AD58" s="40"/>
+    </row>
+    <row r="59" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -22946,8 +22920,9 @@
       <c r="AC59" s="14" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="60" spans="1:29" ht="144" x14ac:dyDescent="0.25">
+      <c r="AD59" s="40"/>
+    </row>
+    <row r="60" spans="1:30" ht="144" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -23035,8 +23010,9 @@
       <c r="AC60" s="14" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="61" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+      <c r="AD60" s="40"/>
+    </row>
+    <row r="61" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -23124,8 +23100,9 @@
       <c r="AC61" s="14" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="62" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+      <c r="AD61" s="40"/>
+    </row>
+    <row r="62" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -23213,8 +23190,9 @@
       <c r="AC62" s="14" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="63" spans="1:29" ht="144" x14ac:dyDescent="0.25">
+      <c r="AD62" s="40"/>
+    </row>
+    <row r="63" spans="1:30" ht="144" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -23302,8 +23280,9 @@
       <c r="AC63" s="14" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="64" spans="1:29" ht="126" x14ac:dyDescent="0.25">
+      <c r="AD63" s="40"/>
+    </row>
+    <row r="64" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -23391,6 +23370,7 @@
       <c r="AC64" s="14" t="s">
         <v>1074</v>
       </c>
+      <c r="AD64" s="40"/>
     </row>
     <row r="65" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
@@ -23480,6 +23460,7 @@
       <c r="AC65" s="14" t="s">
         <v>1092</v>
       </c>
+      <c r="AD65" s="40"/>
     </row>
     <row r="66" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
@@ -23569,6 +23550,7 @@
       <c r="AC66" s="14" t="s">
         <v>1111</v>
       </c>
+      <c r="AD66" s="40"/>
     </row>
     <row r="67" spans="1:30" ht="144" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
@@ -23658,6 +23640,7 @@
       <c r="AC67" s="23" t="s">
         <v>1130</v>
       </c>
+      <c r="AD67" s="40"/>
     </row>
     <row r="68" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
@@ -23747,7 +23730,7 @@
       <c r="AC68" s="23" t="s">
         <v>1148</v>
       </c>
-      <c r="AD68" s="39"/>
+      <c r="AD68" s="40"/>
     </row>
     <row r="69" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
@@ -23837,7 +23820,7 @@
       <c r="AC69" s="21" t="s">
         <v>1167</v>
       </c>
-      <c r="AD69" s="39"/>
+      <c r="AD69" s="40"/>
     </row>
     <row r="70" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
@@ -23927,7 +23910,7 @@
       <c r="AC70" s="21" t="s">
         <v>1185</v>
       </c>
-      <c r="AD70" s="39"/>
+      <c r="AD70" s="40"/>
     </row>
     <row r="71" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
@@ -24017,7 +24000,7 @@
       <c r="AC71" s="14" t="s">
         <v>1203</v>
       </c>
-      <c r="AD71" s="39"/>
+      <c r="AD71" s="40"/>
     </row>
     <row r="72" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
@@ -24107,7 +24090,7 @@
       <c r="AC72" s="23">
         <v>2362</v>
       </c>
-      <c r="AD72" s="39"/>
+      <c r="AD72" s="40"/>
     </row>
     <row r="73" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
@@ -24197,7 +24180,7 @@
       <c r="AC73" s="23" t="s">
         <v>1237</v>
       </c>
-      <c r="AD73" s="39"/>
+      <c r="AD73" s="40"/>
     </row>
     <row r="74" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
@@ -24287,7 +24270,7 @@
       <c r="AC74" s="23">
         <v>4953</v>
       </c>
-      <c r="AD74" s="39"/>
+      <c r="AD74" s="40"/>
     </row>
     <row r="75" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
@@ -24377,7 +24360,7 @@
       <c r="AC75" s="23">
         <v>22567</v>
       </c>
-      <c r="AD75" s="39"/>
+      <c r="AD75" s="40"/>
     </row>
     <row r="76" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
@@ -24467,7 +24450,7 @@
       <c r="AC76" s="23" t="s">
         <v>1288</v>
       </c>
-      <c r="AD76" s="39"/>
+      <c r="AD76" s="40"/>
     </row>
     <row r="77" spans="1:30" ht="144" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
@@ -24557,7 +24540,7 @@
       <c r="AC77" s="23" t="s">
         <v>1304</v>
       </c>
-      <c r="AD77" s="39"/>
+      <c r="AD77" s="40"/>
     </row>
     <row r="78" spans="1:30" ht="108" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
@@ -24647,6 +24630,7 @@
       <c r="AC78" s="23">
         <v>2262</v>
       </c>
+      <c r="AD78" s="40"/>
     </row>
     <row r="79" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
@@ -24736,6 +24720,7 @@
       <c r="AC79" s="23">
         <v>17984</v>
       </c>
+      <c r="AD79" s="40"/>
     </row>
     <row r="80" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
@@ -24825,6 +24810,7 @@
       <c r="AC80" s="23">
         <v>255203</v>
       </c>
+      <c r="AD80" s="40"/>
     </row>
     <row r="81" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
@@ -24914,7 +24900,7 @@
       <c r="AC81" s="23" t="s">
         <v>1366</v>
       </c>
-      <c r="AD81" s="39"/>
+      <c r="AD81" s="40"/>
     </row>
     <row r="82" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
@@ -25002,6 +24988,7 @@
       <c r="AC82" s="14" t="s">
         <v>1381</v>
       </c>
+      <c r="AD82" s="40"/>
     </row>
     <row r="83" spans="1:30" ht="252" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
@@ -25089,7 +25076,7 @@
       <c r="AC83" s="14" t="s">
         <v>1398</v>
       </c>
-      <c r="AD83" s="39"/>
+      <c r="AD83" s="40"/>
     </row>
     <row r="84" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
@@ -25177,7 +25164,7 @@
       <c r="AC84" s="14">
         <v>494</v>
       </c>
-      <c r="AD84" s="39"/>
+      <c r="AD84" s="40"/>
     </row>
     <row r="85" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
@@ -25265,7 +25252,7 @@
       <c r="AC85" s="14" t="s">
         <v>1433</v>
       </c>
-      <c r="AD85" s="39"/>
+      <c r="AD85" s="40"/>
     </row>
     <row r="86" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
@@ -48867,7 +48854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -48879,7 +48866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/ege25/ответы25.xlsx
+++ b/ege25/ответы25.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjhgb\PycharmProjects\isakovich2023\ege25\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56BCF88-CAC8-4ACD-99F0-5DE39B958C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17093,7 +17099,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -17117,7 +17123,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17166,6 +17172,12 @@
         <bgColor indexed="31"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -17194,7 +17206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -17312,6 +17324,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -17372,7 +17385,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17405,9 +17418,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17440,6 +17470,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -17615,11 +17662,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ49" sqref="AJ49"/>
+    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AD145" sqref="AD145:AD146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -26374,6 +26421,7 @@
       <c r="AC98" s="14" t="s">
         <v>1669</v>
       </c>
+      <c r="AD98" s="39"/>
     </row>
     <row r="99" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
@@ -26545,6 +26593,7 @@
       <c r="AC100" s="14" t="s">
         <v>1703</v>
       </c>
+      <c r="AD100" s="39"/>
     </row>
     <row r="101" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
@@ -26630,6 +26679,7 @@
       <c r="AC101" s="14" t="s">
         <v>1720</v>
       </c>
+      <c r="AD101" s="39"/>
     </row>
     <row r="102" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
@@ -26715,6 +26765,7 @@
       <c r="AC102" s="21" t="s">
         <v>1737</v>
       </c>
+      <c r="AD102" s="40"/>
     </row>
     <row r="103" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
@@ -27134,6 +27185,7 @@
       <c r="AC107" s="21" t="s">
         <v>1830</v>
       </c>
+      <c r="AD107" s="39"/>
     </row>
     <row r="108" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
@@ -27216,6 +27268,7 @@
       <c r="AC108" s="21" t="s">
         <v>1848</v>
       </c>
+      <c r="AD108" s="39"/>
     </row>
     <row r="109" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
@@ -27298,6 +27351,7 @@
       <c r="AC109" s="21" t="s">
         <v>1864</v>
       </c>
+      <c r="AD109" s="39"/>
     </row>
     <row r="110" spans="1:30" ht="126" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
@@ -27541,7 +27595,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="113" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:30" ht="90" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>112</v>
       </c>
@@ -27620,8 +27674,9 @@
       <c r="AC113" s="21" t="s">
         <v>1927</v>
       </c>
-    </row>
-    <row r="114" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+      <c r="AD113" s="39"/>
+    </row>
+    <row r="114" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>113</v>
       </c>
@@ -27700,8 +27755,9 @@
       <c r="AC114" s="21" t="s">
         <v>1945</v>
       </c>
-    </row>
-    <row r="115" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+      <c r="AD114" s="39"/>
+    </row>
+    <row r="115" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>114</v>
       </c>
@@ -27780,8 +27836,9 @@
       <c r="AC115" s="21" t="s">
         <v>1964</v>
       </c>
-    </row>
-    <row r="116" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+      <c r="AD115" s="39"/>
+    </row>
+    <row r="116" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>115</v>
       </c>
@@ -27860,8 +27917,9 @@
       <c r="AC116" s="21" t="s">
         <v>1984</v>
       </c>
-    </row>
-    <row r="117" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+      <c r="AD116" s="39"/>
+    </row>
+    <row r="117" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>116</v>
       </c>
@@ -27940,8 +27998,9 @@
       <c r="AC117" s="21" t="s">
         <v>2002</v>
       </c>
-    </row>
-    <row r="118" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+      <c r="AD117" s="39"/>
+    </row>
+    <row r="118" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>117</v>
       </c>
@@ -28020,8 +28079,9 @@
       <c r="AC118" s="21" t="s">
         <v>2020</v>
       </c>
-    </row>
-    <row r="119" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+      <c r="AD118" s="39"/>
+    </row>
+    <row r="119" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>118</v>
       </c>
@@ -28100,8 +28160,9 @@
       <c r="AC119" s="21" t="s">
         <v>2036</v>
       </c>
-    </row>
-    <row r="120" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+      <c r="AD119" s="39"/>
+    </row>
+    <row r="120" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>119</v>
       </c>
@@ -28180,8 +28241,9 @@
       <c r="AC120" s="21" t="s">
         <v>2053</v>
       </c>
-    </row>
-    <row r="121" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+      <c r="AD120" s="39"/>
+    </row>
+    <row r="121" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>120</v>
       </c>
@@ -28260,8 +28322,9 @@
       <c r="AC121" s="21" t="s">
         <v>2070</v>
       </c>
-    </row>
-    <row r="122" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+      <c r="AD121" s="39"/>
+    </row>
+    <row r="122" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>121</v>
       </c>
@@ -28340,8 +28403,9 @@
       <c r="AC122" s="21" t="s">
         <v>2086</v>
       </c>
-    </row>
-    <row r="123" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+      <c r="AD122" s="39"/>
+    </row>
+    <row r="123" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>122</v>
       </c>
@@ -28420,8 +28484,9 @@
       <c r="AC123" s="21" t="s">
         <v>2102</v>
       </c>
-    </row>
-    <row r="124" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+      <c r="AD123" s="39"/>
+    </row>
+    <row r="124" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>123</v>
       </c>
@@ -28500,8 +28565,9 @@
       <c r="AC124" s="21" t="s">
         <v>2117</v>
       </c>
-    </row>
-    <row r="125" spans="1:29" ht="144" x14ac:dyDescent="0.25">
+      <c r="AD124" s="39"/>
+    </row>
+    <row r="125" spans="1:30" ht="144" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>124</v>
       </c>
@@ -28580,8 +28646,9 @@
       <c r="AC125" s="21" t="s">
         <v>2133</v>
       </c>
-    </row>
-    <row r="126" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+      <c r="AD125" s="39"/>
+    </row>
+    <row r="126" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>125</v>
       </c>
@@ -28660,8 +28727,9 @@
       <c r="AC126" s="21" t="s">
         <v>2148</v>
       </c>
-    </row>
-    <row r="127" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+      <c r="AD126" s="39"/>
+    </row>
+    <row r="127" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>126</v>
       </c>
@@ -28741,7 +28809,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="128" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>127</v>
       </c>
@@ -28821,7 +28889,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="129" spans="1:29" ht="144" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:30" ht="144" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>128</v>
       </c>
@@ -28901,7 +28969,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="130" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>129</v>
       </c>
@@ -28981,7 +29049,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="131" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>130</v>
       </c>
@@ -29061,7 +29129,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="132" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>131</v>
       </c>
@@ -29141,7 +29209,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="133" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>132</v>
       </c>
@@ -29215,7 +29283,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="134" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>133</v>
       </c>
@@ -29286,7 +29354,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="135" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>134</v>
       </c>
@@ -29357,7 +29425,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="136" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>135</v>
       </c>
@@ -29428,7 +29496,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="137" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
         <v>136</v>
       </c>
@@ -29498,8 +29566,9 @@
       <c r="AC137" s="14" t="s">
         <v>2306</v>
       </c>
-    </row>
-    <row r="138" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+      <c r="AD137" s="39"/>
+    </row>
+    <row r="138" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
         <v>137</v>
       </c>
@@ -29569,8 +29638,9 @@
       <c r="AC138" s="14" t="s">
         <v>2320</v>
       </c>
-    </row>
-    <row r="139" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+      <c r="AD138" s="41"/>
+    </row>
+    <row r="139" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <v>138</v>
       </c>
@@ -29639,7 +29709,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="140" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <v>139</v>
       </c>
@@ -29708,7 +29778,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="141" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
         <v>140</v>
       </c>
@@ -29777,8 +29847,9 @@
       <c r="AC141" s="14" t="s">
         <v>2360</v>
       </c>
-    </row>
-    <row r="142" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+      <c r="AD141" s="39"/>
+    </row>
+    <row r="142" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
         <v>141</v>
       </c>
@@ -29847,8 +29918,9 @@
       <c r="AC142" s="14" t="s">
         <v>2375</v>
       </c>
-    </row>
-    <row r="143" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+      <c r="AD142" s="39"/>
+    </row>
+    <row r="143" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>142</v>
       </c>
@@ -29917,8 +29989,9 @@
       <c r="AC143" s="14" t="s">
         <v>2390</v>
       </c>
-    </row>
-    <row r="144" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+      <c r="AD143" s="39"/>
+    </row>
+    <row r="144" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>143</v>
       </c>
@@ -29987,8 +30060,9 @@
       <c r="AC144" s="14" t="s">
         <v>2404</v>
       </c>
-    </row>
-    <row r="145" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+      <c r="AD144" s="39"/>
+    </row>
+    <row r="145" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>144</v>
       </c>
@@ -30055,8 +30129,9 @@
       <c r="AC145" s="14" t="s">
         <v>2418</v>
       </c>
-    </row>
-    <row r="146" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+      <c r="AD145" s="39"/>
+    </row>
+    <row r="146" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>145</v>
       </c>
@@ -30123,8 +30198,9 @@
       <c r="AC146" s="14" t="s">
         <v>2431</v>
       </c>
-    </row>
-    <row r="147" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+      <c r="AD146" s="39"/>
+    </row>
+    <row r="147" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>146</v>
       </c>
@@ -30192,7 +30268,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="148" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>147</v>
       </c>
@@ -30260,7 +30336,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="149" spans="1:29" ht="144" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:30" ht="144" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <v>148</v>
       </c>
@@ -30328,7 +30404,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="150" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>149</v>
       </c>
@@ -30396,7 +30472,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="151" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <v>150</v>
       </c>
@@ -30464,7 +30540,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="152" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>151</v>
       </c>
@@ -30532,7 +30608,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="153" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <v>152</v>
       </c>
@@ -30600,7 +30676,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="154" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>153</v>
       </c>
@@ -30668,7 +30744,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="155" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>154</v>
       </c>
@@ -30736,7 +30812,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="156" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>155</v>
       </c>
@@ -30804,7 +30880,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="157" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>156</v>
       </c>
@@ -30872,7 +30948,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="158" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>157</v>
       </c>
@@ -30940,7 +31016,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="159" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>158</v>
       </c>
@@ -31008,7 +31084,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="160" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>159</v>
       </c>
@@ -48854,7 +48930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -48866,7 +48942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/ege25/ответы25.xlsx
+++ b/ege25/ответы25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjhgb\PycharmProjects\isakovich2023\ege25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56BCF88-CAC8-4ACD-99F0-5DE39B958C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84E8750-999D-4D65-8F6F-FF7D4BC53A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17665,8 +17665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AD145" sqref="AD145:AD146"/>
+    <sheetView tabSelected="1" topLeftCell="A254" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AM254" sqref="AM254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -35158,7 +35158,7 @@
         <v>3198</v>
       </c>
     </row>
-    <row r="225" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
         <v>224</v>
       </c>
@@ -35214,7 +35214,7 @@
         <v>3206</v>
       </c>
     </row>
-    <row r="226" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
         <v>225</v>
       </c>
@@ -35270,7 +35270,7 @@
         <v>3214</v>
       </c>
     </row>
-    <row r="227" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
         <v>226</v>
       </c>
@@ -35326,7 +35326,7 @@
         <v>3223</v>
       </c>
     </row>
-    <row r="228" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
         <v>227</v>
       </c>
@@ -35384,7 +35384,7 @@
         <v>3232</v>
       </c>
     </row>
-    <row r="229" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
         <v>228</v>
       </c>
@@ -35441,8 +35441,9 @@
       <c r="AC229" s="23" t="s">
         <v>3239</v>
       </c>
-    </row>
-    <row r="230" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+      <c r="AD229" s="39"/>
+    </row>
+    <row r="230" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
         <v>229</v>
       </c>
@@ -35499,8 +35500,9 @@
       <c r="AC230" s="23" t="s">
         <v>3245</v>
       </c>
-    </row>
-    <row r="231" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+      <c r="AD230" s="39"/>
+    </row>
+    <row r="231" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
         <v>230</v>
       </c>
@@ -35557,8 +35559,9 @@
       <c r="AC231" s="23" t="s">
         <v>3252</v>
       </c>
-    </row>
-    <row r="232" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+      <c r="AD231" s="39"/>
+    </row>
+    <row r="232" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
         <v>231</v>
       </c>
@@ -35615,8 +35618,9 @@
       <c r="AC232" s="23" t="s">
         <v>3259</v>
       </c>
-    </row>
-    <row r="233" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+      <c r="AD232" s="39"/>
+    </row>
+    <row r="233" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
         <v>232</v>
       </c>
@@ -35673,8 +35677,9 @@
       <c r="AC233" s="23" t="s">
         <v>3265</v>
       </c>
-    </row>
-    <row r="234" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+      <c r="AD233" s="39"/>
+    </row>
+    <row r="234" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
         <v>233</v>
       </c>
@@ -35731,8 +35736,9 @@
       <c r="AC234" s="23" t="s">
         <v>3273</v>
       </c>
-    </row>
-    <row r="235" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+      <c r="AD234" s="39"/>
+    </row>
+    <row r="235" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
         <v>234</v>
       </c>
@@ -35789,8 +35795,9 @@
       <c r="AC235" s="23" t="s">
         <v>3281</v>
       </c>
-    </row>
-    <row r="236" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+      <c r="AD235" s="39"/>
+    </row>
+    <row r="236" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
         <v>235</v>
       </c>
@@ -35847,8 +35854,9 @@
       <c r="AC236" s="23" t="s">
         <v>3289</v>
       </c>
-    </row>
-    <row r="237" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+      <c r="AD236" s="39"/>
+    </row>
+    <row r="237" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
         <v>236</v>
       </c>
@@ -35905,8 +35913,9 @@
       <c r="AC237" s="23" t="s">
         <v>3296</v>
       </c>
-    </row>
-    <row r="238" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+      <c r="AD237" s="39"/>
+    </row>
+    <row r="238" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
         <v>237</v>
       </c>
@@ -35963,8 +35972,9 @@
       <c r="AC238" s="23" t="s">
         <v>3305</v>
       </c>
-    </row>
-    <row r="239" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+      <c r="AD238" s="39"/>
+    </row>
+    <row r="239" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
         <v>238</v>
       </c>
@@ -36021,8 +36031,9 @@
       <c r="AC239" s="23" t="s">
         <v>3314</v>
       </c>
-    </row>
-    <row r="240" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+      <c r="AD239" s="39"/>
+    </row>
+    <row r="240" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
         <v>239</v>
       </c>
@@ -36080,7 +36091,7 @@
         <v>3323</v>
       </c>
     </row>
-    <row r="241" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A241" s="6">
         <v>240</v>
       </c>
@@ -36138,7 +36149,7 @@
         <v>3331</v>
       </c>
     </row>
-    <row r="242" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
         <v>241</v>
       </c>
@@ -36196,7 +36207,7 @@
         <v>3339</v>
       </c>
     </row>
-    <row r="243" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
         <v>242</v>
       </c>
@@ -36254,7 +36265,7 @@
         <v>3346</v>
       </c>
     </row>
-    <row r="244" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A244" s="6">
         <v>243</v>
       </c>
@@ -36310,8 +36321,9 @@
       <c r="AC244" s="23" t="s">
         <v>3353</v>
       </c>
-    </row>
-    <row r="245" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+      <c r="AD244" s="39"/>
+    </row>
+    <row r="245" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A245" s="6">
         <v>244</v>
       </c>
@@ -36366,8 +36378,9 @@
       <c r="AC245" s="23" t="s">
         <v>3360</v>
       </c>
-    </row>
-    <row r="246" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+      <c r="AD245" s="39"/>
+    </row>
+    <row r="246" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A246" s="6">
         <v>245</v>
       </c>
@@ -36422,8 +36435,9 @@
       <c r="AC246" s="23" t="s">
         <v>3367</v>
       </c>
-    </row>
-    <row r="247" spans="1:29" ht="162" x14ac:dyDescent="0.25">
+      <c r="AD246" s="39"/>
+    </row>
+    <row r="247" spans="1:30" ht="162" x14ac:dyDescent="0.25">
       <c r="A247" s="6">
         <v>246</v>
       </c>
@@ -36479,7 +36493,7 @@
         <v>3373</v>
       </c>
     </row>
-    <row r="248" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
         <v>247</v>
       </c>
@@ -36535,7 +36549,7 @@
         <v>3380</v>
       </c>
     </row>
-    <row r="249" spans="1:29" ht="198" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:30" ht="198" x14ac:dyDescent="0.25">
       <c r="A249" s="6">
         <v>248</v>
       </c>
@@ -36591,7 +36605,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="250" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A250" s="18">
         <v>249</v>
       </c>
@@ -36647,7 +36661,7 @@
         <v>3397</v>
       </c>
     </row>
-    <row r="251" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A251" s="6">
         <v>250</v>
       </c>
@@ -36703,7 +36717,7 @@
         <v>3405</v>
       </c>
     </row>
-    <row r="252" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A252" s="6">
         <v>251</v>
       </c>
@@ -36759,7 +36773,7 @@
         <v>3414</v>
       </c>
     </row>
-    <row r="253" spans="1:29" ht="198" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:30" ht="198" x14ac:dyDescent="0.25">
       <c r="A253" s="6">
         <v>252</v>
       </c>
@@ -36815,7 +36829,7 @@
         <v>3423</v>
       </c>
     </row>
-    <row r="254" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A254" s="6">
         <v>253</v>
       </c>
@@ -36871,7 +36885,7 @@
         <v>3431</v>
       </c>
     </row>
-    <row r="255" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:30" ht="90" x14ac:dyDescent="0.25">
       <c r="A255" s="6">
         <v>254</v>
       </c>
@@ -36927,7 +36941,7 @@
         <v>3438</v>
       </c>
     </row>
-    <row r="256" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:30" ht="90" x14ac:dyDescent="0.25">
       <c r="A256" s="6">
         <v>255</v>
       </c>
@@ -36982,8 +36996,9 @@
       <c r="AC256" s="14" t="s">
         <v>3444</v>
       </c>
-    </row>
-    <row r="257" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+      <c r="AD256" s="39"/>
+    </row>
+    <row r="257" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A257" s="6">
         <v>256</v>
       </c>
@@ -37038,8 +37053,9 @@
       <c r="AC257" s="14" t="s">
         <v>3449</v>
       </c>
-    </row>
-    <row r="258" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+      <c r="AD257" s="39"/>
+    </row>
+    <row r="258" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A258" s="6">
         <v>257</v>
       </c>
@@ -37094,8 +37110,9 @@
       <c r="AC258" s="14" t="s">
         <v>3455</v>
       </c>
-    </row>
-    <row r="259" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+      <c r="AD258" s="39"/>
+    </row>
+    <row r="259" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A259" s="6">
         <v>258</v>
       </c>
@@ -37150,8 +37167,9 @@
       <c r="AC259" s="14" t="s">
         <v>3462</v>
       </c>
-    </row>
-    <row r="260" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+      <c r="AD259" s="39"/>
+    </row>
+    <row r="260" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A260" s="6">
         <v>259</v>
       </c>
@@ -37206,8 +37224,9 @@
       <c r="AC260" s="14" t="s">
         <v>3468</v>
       </c>
-    </row>
-    <row r="261" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+      <c r="AD260" s="39"/>
+    </row>
+    <row r="261" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A261" s="6">
         <v>260</v>
       </c>
@@ -37263,7 +37282,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="262" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A262" s="6">
         <v>261</v>
       </c>
@@ -37319,7 +37338,7 @@
         <v>3480</v>
       </c>
     </row>
-    <row r="263" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A263" s="6">
         <v>262</v>
       </c>
@@ -37375,7 +37394,7 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="264" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A264" s="6">
         <v>263</v>
       </c>
@@ -37431,7 +37450,7 @@
         <v>3491</v>
       </c>
     </row>
-    <row r="265" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A265" s="6">
         <v>264</v>
       </c>
@@ -37486,8 +37505,9 @@
       <c r="AC265" s="23" t="s">
         <v>3495</v>
       </c>
-    </row>
-    <row r="266" spans="1:29" ht="198" x14ac:dyDescent="0.25">
+      <c r="AD265" s="39"/>
+    </row>
+    <row r="266" spans="1:30" ht="198" x14ac:dyDescent="0.25">
       <c r="A266" s="6">
         <v>265</v>
       </c>
@@ -37543,7 +37563,7 @@
         <v>3499</v>
       </c>
     </row>
-    <row r="267" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A267" s="6">
         <v>266</v>
       </c>
@@ -37599,7 +37619,7 @@
         <v>3504</v>
       </c>
     </row>
-    <row r="268" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A268" s="6">
         <v>267</v>
       </c>
@@ -37655,7 +37675,7 @@
         <v>3509</v>
       </c>
     </row>
-    <row r="269" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A269" s="6">
         <v>268</v>
       </c>
@@ -37711,7 +37731,7 @@
         <v>3515</v>
       </c>
     </row>
-    <row r="270" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A270" s="6">
         <v>269</v>
       </c>
@@ -37767,7 +37787,7 @@
         <v>3522</v>
       </c>
     </row>
-    <row r="271" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A271" s="6">
         <v>270</v>
       </c>
@@ -37821,7 +37841,7 @@
         <v>3529</v>
       </c>
     </row>
-    <row r="272" spans="1:29" ht="180" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:30" ht="180" x14ac:dyDescent="0.25">
       <c r="A272" s="6">
         <v>271</v>
       </c>
@@ -39097,7 +39117,7 @@
         <v>3644</v>
       </c>
     </row>
-    <row r="297" spans="1:29" ht="90" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:29" ht="72" x14ac:dyDescent="0.25">
       <c r="A297" s="6">
         <v>296</v>
       </c>
@@ -41170,7 +41190,7 @@
       <c r="Y342" s="13"/>
       <c r="AA342" s="13"/>
     </row>
-    <row r="343" spans="1:27" ht="108" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A343" s="6">
         <v>342</v>
       </c>
@@ -41338,7 +41358,7 @@
       <c r="Y346" s="13"/>
       <c r="AA346" s="13"/>
     </row>
-    <row r="347" spans="1:27" ht="108" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A347" s="6">
         <v>346</v>
       </c>
@@ -41380,7 +41400,7 @@
       <c r="Y347" s="13"/>
       <c r="AA347" s="13"/>
     </row>
-    <row r="348" spans="1:27" ht="108" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A348" s="6">
         <v>347</v>
       </c>
@@ -44166,7 +44186,7 @@
       <c r="Y421" s="13"/>
       <c r="AA421" s="13"/>
     </row>
-    <row r="422" spans="1:27" ht="180" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:27" ht="162" x14ac:dyDescent="0.25">
       <c r="A422" s="6">
         <v>421</v>
       </c>
